--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888776.3842138366</v>
+        <v>-891325.0413998573</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13813572.64661512</v>
+        <v>13813572.64661511</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>129.566468726298</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>20.2951565631025</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.37754182526501</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>97.27949743629694</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>231.4760253798845</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>40.55613065434536</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>7.730549048947387</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>60.23681676643444</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>361.3697241471385</v>
+        <v>125.2322994478132</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.61592966729569</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>16.75292058756528</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.64713141730827</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>118.8520688186518</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520976</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.13408744447725</v>
+        <v>67.43549003635323</v>
       </c>
     </row>
     <row r="17">
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188232</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179482</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>179.8780801519776</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>43.73846614325402</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079702</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,22 +3190,22 @@
         <v>151.6755878036686</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232532</v>
+        <v>133.0442397232531</v>
       </c>
       <c r="E34" t="n">
-        <v>52.97777888982461</v>
+        <v>130.8627293516099</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.849814727972</v>
       </c>
       <c r="G34" t="n">
         <v>149.9529049973096</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512647</v>
+        <v>124.7234795512646</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360633</v>
+        <v>65.69460302360629</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516249</v>
+        <v>50.80401341516244</v>
       </c>
       <c r="S34" t="n">
         <v>165.4550527066854</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323291</v>
+        <v>201.834217032329</v>
       </c>
       <c r="U34" t="n">
         <v>270.6132410942849</v>
@@ -3247,10 +3247,10 @@
         <v>236.5664100288688</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416318</v>
+        <v>63.21699985187519</v>
       </c>
       <c r="X34" t="n">
-        <v>210.138422094078</v>
+        <v>210.1384220940779</v>
       </c>
       <c r="Y34" t="n">
         <v>203.0134200571356</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.124011696102</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>994.1614947556902</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>994.16149475569</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>608.3732421574459</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>197.3873373678384</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997115</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736035</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760224</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7831921883594</v>
+        <v>1928.562613961073</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7831921883594</v>
+        <v>1759.626431033166</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>1759.626431033166</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>1611.713337450773</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760402</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3137.513245744177</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3137.513245744177</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2848.41037886982</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>2848.41037886982</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621292</v>
+        <v>2558.99320883286</v>
       </c>
       <c r="X4" t="n">
-        <v>880.2242361621292</v>
+        <v>2331.003657934843</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.431657018599</v>
+        <v>2110.211078791313</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473101</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>764.3411331473101</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>353.3552283577025</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3231822431031</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.640033069428</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3031.109556343265</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2700.046668999694</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2347.278013729579</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>1973.8122554685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>561.0764108006842</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="C7" t="n">
-        <v>392.1402278727774</v>
+        <v>522.7127960696118</v>
       </c>
       <c r="D7" t="n">
-        <v>242.0235884604416</v>
+        <v>372.5961566572761</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>224.683063074883</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>224.683063074883</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>224.683063074883</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.507005672471</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5174547744541</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.724875630924</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X8" t="n">
-        <v>1706.955462799692</v>
+        <v>1945.478114011128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>1555.338782035317</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.561285798296</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.561285798296</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T10" t="n">
-        <v>1915.561285798296</v>
+        <v>1718.686521907676</v>
       </c>
       <c r="U10" t="n">
-        <v>1915.561285798296</v>
+        <v>1429.58365503332</v>
       </c>
       <c r="V10" t="n">
-        <v>1660.876797592409</v>
+        <v>1429.58365503332</v>
       </c>
       <c r="W10" t="n">
-        <v>1371.459627555448</v>
+        <v>1140.166484996359</v>
       </c>
       <c r="X10" t="n">
-        <v>1143.470076657431</v>
+        <v>912.1769340983416</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.6774975139006</v>
+        <v>691.3843549548114</v>
       </c>
     </row>
     <row r="11">
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.4481746984127</v>
+        <v>763.7541388327613</v>
       </c>
       <c r="C13" t="n">
-        <v>680.4481746984127</v>
+        <v>594.8179559048544</v>
       </c>
       <c r="D13" t="n">
-        <v>530.331535286077</v>
+        <v>444.7013164925187</v>
       </c>
       <c r="E13" t="n">
-        <v>382.418441703684</v>
+        <v>296.7882229101256</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>296.7882229101256</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>296.7882229101256</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>155.0763917523236</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.05565446885</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1854.980427813048</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1600.295939607161</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1310.8787695702</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1082.889218672183</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.0966395286524</v>
+        <v>945.4026036630011</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>849.3843576263198</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>680.4481746984129</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860772</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>382.418441703684</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>1031.032822456559</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121644</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270444</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
         <v>2327.76484885336</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876686</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597617</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597617</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746415</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>103.05519111684</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2265.268053123717</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614385</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179083</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270448</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188002</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166296</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189237</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327548</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290587</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925701</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490399</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6625,10 +6625,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539588</v>
+        <v>988.5675309052288</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058087</v>
+        <v>835.3598664570786</v>
       </c>
       <c r="D34" t="n">
-        <v>491.1386493732297</v>
+        <v>700.9717455244997</v>
       </c>
       <c r="E34" t="n">
-        <v>437.6257414037099</v>
+        <v>568.7871704218634</v>
       </c>
       <c r="F34" t="n">
         <v>437.6257414037099</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983466</v>
+        <v>286.1581605983465</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203015</v>
+        <v>160.1748479203014</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403053</v>
+        <v>189.4682024403054</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278534</v>
+        <v>466.5729859278536</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658029</v>
+        <v>872.3871010658033</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758847</v>
+        <v>1309.812324758848</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380865</v>
+        <v>1742.637717380866</v>
       </c>
       <c r="O34" t="n">
         <v>2127.58251905186</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587428</v>
+        <v>2435.673495587429</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276337</v>
+        <v>2570.287251276338</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008496</v>
+        <v>2518.970066008497</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143157</v>
+        <v>2351.843750143158</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645855</v>
+        <v>2147.970803645856</v>
       </c>
       <c r="U34" t="n">
         <v>1874.62409546981</v>
@@ -6895,13 +6895,13 @@
         <v>1635.66812574368</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186476</v>
+        <v>1571.812570337745</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768215</v>
+        <v>1359.551537919485</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044418</v>
+        <v>1154.487477255712</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7132,7 +7132,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7500,7 +7500,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384012</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>281.3552569271555</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292599</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.4571019070324</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.23793119294734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>92.48952789514496</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>20.61870490125726</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>98.55338150863642</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.4505659076175</v>
+        <v>151.1491633157416</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038653</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038603</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>37.5273701753107</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>137.2878198583906</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>37.12601365260447</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>77.88495046178537</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.849814727972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>207.7347651897566</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187548.4044340063</v>
+        <v>187548.4044340064</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26332,7 +26332,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
@@ -26344,10 +26344,10 @@
         <v>224415.4372624254</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596738</v>
+        <v>12456.98663596728</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317618</v>
+        <v>92025.75929317632</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>12210.17896214073</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316955</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,31 +26430,31 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="H4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="L4" t="n">
-        <v>17510.63193648124</v>
+        <v>17510.63193648126</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="P4" t="n">
         <v>20377.77944491159</v>
@@ -26473,7 +26473,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261340.46081712</v>
+        <v>-1261688.079746926</v>
       </c>
       <c r="C6" t="n">
-        <v>26278.59119811501</v>
+        <v>26278.59119811506</v>
       </c>
       <c r="D6" t="n">
-        <v>26278.5911981152</v>
+        <v>26278.59119811576</v>
       </c>
       <c r="E6" t="n">
-        <v>-216956.5968983285</v>
+        <v>-216991.3348237649</v>
       </c>
       <c r="F6" t="n">
-        <v>108455.8649090265</v>
+        <v>108421.1269835908</v>
       </c>
       <c r="G6" t="n">
-        <v>108455.8649090264</v>
+        <v>108421.1269835908</v>
       </c>
       <c r="H6" t="n">
-        <v>108455.8649090262</v>
+        <v>108421.1269835908</v>
       </c>
       <c r="I6" t="n">
-        <v>108455.8649090265</v>
+        <v>108421.1269835907</v>
       </c>
       <c r="J6" t="n">
-        <v>-109075.3374882508</v>
+        <v>-109110.0754136867</v>
       </c>
       <c r="K6" t="n">
-        <v>108455.8649090265</v>
+        <v>108421.1269835908</v>
       </c>
       <c r="L6" t="n">
-        <v>92016.23085419575</v>
+        <v>92003.76676828442</v>
       </c>
       <c r="M6" t="n">
-        <v>10218.83212067485</v>
+        <v>10218.83212067475</v>
       </c>
       <c r="N6" t="n">
         <v>102244.5914138511</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495922</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080494</v>
+        <v>8.713414197080487</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>63.13173900743595</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>163.3618394852748</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>138.7034135976218</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>84.51819814788635</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>8.361376531330507</v>
+        <v>244.4988012306558</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.31622300275163</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>202.7960286886039</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.56935962725749e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-5.590659202093504e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="C34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="D34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="F34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="G34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="H34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="I34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="J34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="K34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="L34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="M34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="N34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="O34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="P34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="R34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="S34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="T34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="U34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="V34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="W34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5712332949592</v>
+        <v>15.57123329495924</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32251,7 +32251,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6713445157999</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295234</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791256</v>
+        <v>96.6177165579126</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045941</v>
+        <v>279.9038217045942</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140906</v>
+        <v>409.9132476140907</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960043</v>
+        <v>441.8436602960044</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848666</v>
+        <v>437.1973662848667</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010046</v>
+        <v>388.8331330010047</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015841</v>
+        <v>311.2030066015842</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948575</v>
+        <v>135.9734905948576</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
